--- a/User chart.xlsx
+++ b/User chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DracoInferno\Desktop\CSE 4500\Demo\Cse4500FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F255708-5AA5-45DC-880E-61AC33AEE9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0772A21-DFAB-4EBB-B4DB-212484C1100B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{9326977F-A1DA-4DD8-A167-65A5FB821D65}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9326977F-A1DA-4DD8-A167-65A5FB821D65}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,18 +41,6 @@
     <t>Website</t>
   </si>
   <si>
-    <t>Steven User</t>
-  </si>
-  <si>
-    <t>Chris User</t>
-  </si>
-  <si>
-    <t>Danial  User</t>
-  </si>
-  <si>
-    <t>Reed User</t>
-  </si>
-  <si>
     <t>Steven Website</t>
   </si>
   <si>
@@ -65,7 +53,19 @@
     <t>Reed Website</t>
   </si>
   <si>
-    <t>Adverage</t>
+    <t>Steven User (time in sec)</t>
+  </si>
+  <si>
+    <t>Chris User (time in sec)</t>
+  </si>
+  <si>
+    <t>Danial  User (time in sec)</t>
+  </si>
+  <si>
+    <t>Reed User (time in sec)</t>
+  </si>
+  <si>
+    <t>Adverage (time in sec)</t>
   </si>
 </sst>
 </file>
@@ -440,16 +440,17 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -457,16 +458,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
         <v>9</v>
@@ -474,7 +475,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>130</v>
@@ -494,12 +495,27 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>23.75</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>50</v>
@@ -519,7 +535,22 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>35</v>
+      </c>
+      <c r="F5">
+        <v>28.75</v>
       </c>
     </row>
   </sheetData>
